--- a/ExcelSheet.xlsx
+++ b/ExcelSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,8 +11,22 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +356,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ExcelSheet.xlsx
+++ b/ExcelSheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S No</t>
   </si>
@@ -25,6 +25,18 @@
   </si>
   <si>
     <t>Company</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>resrewr</t>
+  </si>
+  <si>
+    <t>qdasdsd</t>
   </si>
 </sst>
 </file>
@@ -356,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -373,6 +385,28 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
